--- a/cards/emi_transaction_subset/emi_transaction_subset.xlsx
+++ b/cards/emi_transaction_subset/emi_transaction_subset.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT16"/>
+  <dimension ref="A1:AX16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,2243 +440,2623 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>etr_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>etr_code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>etr_text</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>etr_reason</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>etr_acc_code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>etr_acc_numb</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>etr_ban_code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>etr_car_code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>etr_crt_code</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>etr_cur_code</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>etr_dpd_flag</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>etr_fee_amou</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>etr_fee_flag</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>etr_acce_flag</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>etr_auth_numb</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>etr_bill_amou</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>etr_crea_date</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>etr_down_paym</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>etr_fclo_amou</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>etr_fclo_inst</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>etr_forc_clos</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>etr_inst_amou</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>etr_inte_rate</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>etr_pend_amou</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>etr_pend_numb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>etr_post_type</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>etr_proc_date</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>etr_tran_amou</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>etr_tran_date</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>etr_tran_numb</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>etr_car_number</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>etr_resch_flag</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>etr_cancel_flag</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>etr_fpr_tco_code</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>etr_fclo_norm_tran</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>etr_firs_post_date</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>etr_holiday_period</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>etr_next_post_date</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>etr_resch_etr_code</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>etr_insta_intr_amou</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>etr_resch_inst_numb</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>etr_resch_inte_rate</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>etr_resch_fee_amount</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>etr_resch_onshot_amount</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>etr_resch_holiday_period</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ff2439a9-d06c-4243-bfde-e3a210bb4150</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
         <v>34541</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Migrated EMI From Old Switch 25-03-2023</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Processed</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>2368814</v>
       </c>
-      <c r="F2" t="n">
-        <v>524700013597</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>524700013597</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>2127285</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
         <v>150</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>54390</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>2022-05-10T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
         <v>3021.67</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>2022-05-10T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>54390</v>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>2022-05-10T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>18</v>
       </c>
-      <c r="AE2" t="n">
-        <v>4235678000153405</v>
-      </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>4235678000153405</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>2022-05-10T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr">
         <is>
           <t>2023-11-10T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
-      <c r="AT2" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX2" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2ed2bc47-9f80-4199-80bd-e7eb0945a5ac</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
         <v>34621</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Migrated EMI From Old Switch 25-03-2023</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Processed</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>2368829</v>
       </c>
-      <c r="F3" t="n">
-        <v>524700013646</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>524700013646</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>2138061</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
         <v>150</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>32000</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>2022-05-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
         <v>2666.67</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>2022-05-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
         <v>32000</v>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2022-05-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD3" t="n">
+      <c r="AF3" t="n">
         <v>12</v>
       </c>
-      <c r="AE3" t="n">
-        <v>4235678000153942</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>4235678000153942</t>
+        </is>
+      </c>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
         <is>
           <t>2022-05-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr">
         <is>
           <t>2023-05-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
-      <c r="AT3" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>e9125988-aaa2-4566-9b64-ee278ceead1e</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
         <v>36661</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Migrated EMI From Old Switch 25-03-2023</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Processed</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>2368762</v>
       </c>
-      <c r="F4" t="n">
-        <v>524700014564</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>524700014564</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>2122504</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
         <v>150</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>81000</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>2023-01-08T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X4" t="n">
         <v>6750</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>2023-01-08T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>81000</v>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>2023-01-08T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>12</v>
       </c>
-      <c r="AE4" t="n">
-        <v>4235678000164170</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>4235678000164170</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>2023-01-08T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr">
         <is>
           <t>2024-01-08T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
-      <c r="AT4" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX4" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>260b31a9-dcd5-4f74-8969-95908c054c7c</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
         <v>36301</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Migrated EMI From Old Switch 25-03-2023</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Processed</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>2368815</v>
       </c>
-      <c r="F5" t="n">
-        <v>524700014324</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>524700014324</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>2129000</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
         <v>150</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>90000</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>2023-01-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
         <v>10000</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>2023-01-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>90000</v>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>2023-01-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD5" t="n">
+      <c r="AF5" t="n">
         <v>9</v>
       </c>
-      <c r="AE5" t="n">
-        <v>4235678000161630</v>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>4235678000161630</t>
+        </is>
+      </c>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>2023-01-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr">
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr">
         <is>
           <t>2023-10-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
-      <c r="AT5" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX5" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>f7c68c91-b543-442f-8508-c45e5938ed4d</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
         <v>27341</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Migrated EMI From Old Switch 25-03-2023</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Processed</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>2355341</v>
       </c>
-      <c r="F6" t="n">
-        <v>100700000005</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>100700000005</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>2105953</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
         <v>150</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>80000</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>2023-01-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
         <v>8888.959999999999</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>2</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>4444.44</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>2023-01-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB6" t="n">
+      <c r="AD6" t="n">
         <v>80000</v>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>2023-01-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
         <v>18</v>
       </c>
-      <c r="AE6" t="n">
-        <v>4235678000074098</v>
-      </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>4235678000074098</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>2023-01-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
+      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
-      <c r="AT6" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX6" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>8bbc4b29-1c9f-45b0-b9b1-7715d6f3e4da</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
         <v>114641</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Processed</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>2368815</v>
       </c>
-      <c r="F7" t="n">
-        <v>524700014324</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>524700014324</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>2129000</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>11272101</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>150</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>662.5</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>26500</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>2023-11-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
         <v>8833.33</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>2023-11-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
         <v>26500</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2023-11-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD7" t="n">
+      <c r="AF7" t="n">
         <v>3</v>
       </c>
-      <c r="AE7" t="n">
-        <v>4235678000161630</v>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr"/>
+          <t>4235678000161630</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
         <is>
           <t>2023-11-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr">
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
         <is>
           <t>2024-02-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
-      <c r="AT7" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX7" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8988602b-abfe-4f1f-a03b-c5d3c961deee</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>125421</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
         <v>2368762</v>
       </c>
-      <c r="F8" t="n">
-        <v>524700014564</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>524700014564</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>2122504</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>11875701</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>150</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>55000</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>2023-12-28T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
         <v>3055.56</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>33611.08</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
         <v>11</v>
       </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>2023-12-28T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
         <v>55000</v>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>2023-12-27T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD8" t="n">
+      <c r="AF8" t="n">
         <v>18</v>
       </c>
-      <c r="AE8" t="n">
-        <v>4235678000164170</v>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr"/>
+          <t>4235678000164170</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AI8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
         <is>
           <t>2023-12-28T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr">
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
         <is>
           <t>2024-07-28T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
-      <c r="AT8" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX8" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>d0aa4e60-ddfe-4374-8d37-0f2386bc21aa</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
         <v>128541</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
         <v>2368831</v>
       </c>
-      <c r="F9" t="n">
-        <v>524700014009</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>524700014009</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>2128963</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>12058341</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>150</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
         <v>56000</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>2024-01-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>2000</v>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
         <v>4500</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
         <v>22500</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
         <v>5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>2024-01-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
         <v>56000</v>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>2024-01-06T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
         <v>12</v>
       </c>
-      <c r="AE9" t="n">
-        <v>4235678000169450</v>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr"/>
+          <t>4235678000169450</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AI9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
         <is>
           <t>2024-01-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr">
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>2024-08-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
-      <c r="AT9" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX9" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>961f30bd-1f3b-4719-a258-a824d28cbd1e</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>137321</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>2368795</v>
       </c>
-      <c r="F10" t="n">
-        <v>524700013560</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>524700013560</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>2133166</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>12824781</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>150</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
         <v>45112</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>2024-02-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
         <v>3759.33</v>
       </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>22556.02</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
         <v>6</v>
       </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>2024-02-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
         <v>45112</v>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>2024-02-09T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
         <v>12</v>
       </c>
-      <c r="AE10" t="n">
-        <v>4235678000153017</v>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
+          <t>4235678000153017</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AI10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
         <is>
           <t>2024-02-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr">
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
         <is>
           <t>2024-08-11T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
-      <c r="AT10" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX10" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>fe5872e6-0bd7-429f-8bd3-1997c0df0805</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
         <v>140141</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Processed</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>2368803</v>
       </c>
-      <c r="F11" t="n">
-        <v>524700013586</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>524700013586</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>2135916</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>12963481</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>150</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>100000</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>2024-02-16T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V11" t="n">
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X11" t="n">
         <v>16666.67</v>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>2024-02-16T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
         <v>100000</v>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2024-02-09T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD11" t="n">
+      <c r="AF11" t="n">
         <v>6</v>
       </c>
-      <c r="AE11" t="n">
-        <v>4235678000153298</v>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr"/>
+          <t>4235678000153298</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AI11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>2024-02-16T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr">
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>2024-08-16T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
-      <c r="AT11" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX11" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>265d640c-df17-40cc-bc68-bf1b7ec6cff7</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
         <v>153901</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
         <v>2368762</v>
       </c>
-      <c r="F12" t="n">
-        <v>524700014564</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>524700014564</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>2122504</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>13680781</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>150</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>145000</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>2024-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
         <v>6041.67</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
         <v>114791.65</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AA12" t="n">
         <v>19</v>
       </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>2024-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB12" t="n">
+      <c r="AD12" t="n">
         <v>145000</v>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>2024-03-17T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD12" t="n">
+      <c r="AF12" t="n">
         <v>24</v>
       </c>
-      <c r="AE12" t="n">
-        <v>4235678000164170</v>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr"/>
+          <t>4235678000164170</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AI12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
         <is>
           <t>2024-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr">
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
         <is>
           <t>2024-08-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
       <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
-      <c r="AT12" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX12" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>f8e5ac72-b6df-4b65-94a3-d4fc818e3218</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
         <v>165781</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
         <v>2368815</v>
       </c>
-      <c r="F13" t="n">
-        <v>524700014324</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>524700014324</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>2129000</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>14589441</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>150</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>8000</v>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>80000</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>2024-04-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
         <v>6666.67</v>
       </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
         <v>53333.32</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AA13" t="n">
         <v>8</v>
       </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
         <is>
           <t>2024-04-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB13" t="n">
+      <c r="AD13" t="n">
         <v>80000</v>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2024-04-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD13" t="n">
+      <c r="AF13" t="n">
         <v>12</v>
       </c>
-      <c r="AE13" t="n">
-        <v>4235678000161630</v>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr"/>
+          <t>4235678000161630</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AI13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
         <is>
           <t>2024-04-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr">
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
         <is>
           <t>2024-08-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
       <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
-      <c r="AT13" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX13" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>eae0adcd-7cd8-49c0-b884-6a40889ca3d2</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
         <v>175561</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
         <v>2355341</v>
       </c>
-      <c r="F14" t="n">
-        <v>100700000005</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>100700000005</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>2105953</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>15170121</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>150</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>200000</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>2024-05-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X14" t="n">
         <v>8333.33</v>
       </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
         <v>175000.01</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AA14" t="n">
         <v>21</v>
       </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
         <is>
           <t>2024-05-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB14" t="n">
+      <c r="AD14" t="n">
         <v>200000</v>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>2024-05-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD14" t="n">
+      <c r="AF14" t="n">
         <v>24</v>
       </c>
-      <c r="AE14" t="n">
-        <v>4235678000074098</v>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr"/>
+          <t>4235678000074098</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AI14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
         <is>
           <t>2024-05-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr">
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
         <is>
           <t>2024-08-26T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
       <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
-      <c r="AT14" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX14" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>b26f8359-99b7-45bb-804f-0bd5fa0f0424</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
         <v>189361</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
         <v>2368838</v>
       </c>
-      <c r="F15" t="n">
-        <v>524700012943</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>524700012943</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>2131542</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>15783601</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>150</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>50000</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>2024-07-03T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
         <v>4166.67</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
         <v>45833.33</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AA15" t="n">
         <v>11</v>
       </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
         <is>
           <t>2024-07-03T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB15" t="n">
+      <c r="AD15" t="n">
         <v>50000</v>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>2024-06-28T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD15" t="n">
+      <c r="AF15" t="n">
         <v>12</v>
       </c>
-      <c r="AE15" t="n">
-        <v>4235678000146169</v>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr"/>
+          <t>4235678000146169</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AI15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
         <is>
           <t>2024-07-03T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr">
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
         <is>
           <t>2024-08-03T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
       <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
-      <c r="AT15" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX15" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>f228c651-c7ef-401c-8d88-3137414a96de</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
         <v>189741</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
         <v>2368806</v>
       </c>
-      <c r="F16" t="n">
-        <v>524700015755</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>524700015755</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>2137670</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>15810301</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>150</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>27500</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>2024-07-04T00:00:00.000000</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X16" t="n">
         <v>9166.67</v>
       </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
         <v>18333.33</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AA16" t="n">
         <v>2</v>
       </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
         <is>
           <t>2024-07-04T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB16" t="n">
+      <c r="AD16" t="n">
         <v>27500</v>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>2024-06-28T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AD16" t="n">
+      <c r="AF16" t="n">
         <v>3</v>
       </c>
-      <c r="AE16" t="n">
-        <v>4235678000177230</v>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr"/>
+          <t>4235678000177230</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AI16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
         <is>
           <t>2024-07-04T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr">
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
         <is>
           <t>2024-08-04T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
       <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
-      <c r="AT16" s="2" t="n">
-        <v>45511.29519346065</v>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/EMI_TRANSACTION/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="AX16" s="2" t="n">
+        <v>45511.29519345843</v>
       </c>
     </row>
   </sheetData>
